--- a/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>241,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>192,53%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,55; 10,25</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 9,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 5,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53,5; 822,9</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,23; 700,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,62; 824,03</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>631,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>229,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>331,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 7,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 7,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,38; 8,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>133,01; 2625,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,01; 729,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,74; 1040,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,72; 358,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>283,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>492,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,03%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 6,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 9,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 6,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 7,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1660,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,23; 375,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,84; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,11; 190,81</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>462,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>272,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>281,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 6,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,26; 9,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 8,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 3,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,63; 2211,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,43; 570,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,47; 873,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,32; 128,34</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>417,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>300,27%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 13,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,07; 17,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 8,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 6,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,83; 499,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,95; 1307,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,9; 237,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,76; 1527,38</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>325,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>707,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,91%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 5,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 9,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,1; 11,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 4,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,26; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,53; 482,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>142,33; 3757,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,02; 121,28</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>282,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>267,27%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,87%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 8,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 5,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 6,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>118,41; 668,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,7; 195,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,42; 790,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 175,7</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>329,49%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 5,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 6,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 8,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 7,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,6; 178,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,26; 339,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,25; 328,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,6; 643,56</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,69%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,08%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,12%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 5,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 6,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 5,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 5,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,11; 288,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,06; 236,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,89; 324,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,07; 165,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>192,53%</t>
+          <t>206,91%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,32</t>
+          <t>0,92; 5,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 369,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 824,03</t>
+          <t>23,88; 856,88</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>153,88%</t>
+          <t>163,35%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,85</t>
+          <t>3,45; 8,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,72; 358,96</t>
+          <t>57,32; 376,22</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>81,78%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,51</t>
+          <t>0,95; 7,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 190,81</t>
+          <t>9,41; 194,36</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>272,04%</t>
+          <t>624,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>-6,96%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,35</t>
+          <t>5,71; 11,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,47</t>
+          <t>-4,23; 2,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>115,43; 570,41</t>
+          <t>212,53; 2061,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 128,34</t>
+          <t>-57,41; 91,34</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>300,27%</t>
+          <t>311,58%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,12</t>
+          <t>1,42; 6,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,76; 1527,38</t>
+          <t>36,44; 1573,4</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>25,16%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 4,36</t>
+          <t>-2,02; 4,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 121,28</t>
+          <t>-32,67; 121,45</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>61,83%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,45</t>
+          <t>-2,19; 6,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 175,7</t>
+          <t>-36,56; 159,27</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>329,49%</t>
+          <t>461,29%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,68</t>
+          <t>4,45; 8,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>151,6; 643,56</t>
+          <t>197,98; 1303,55</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>118,12%</t>
+          <t>121,83%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,08</t>
+          <t>2,34; 5,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>75,07; 165,58</t>
+          <t>70,59; 194,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,25</t>
+          <t>2,27; 9,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 7,95</t>
+          <t>0,02; 7,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,74</t>
+          <t>2,11; 9,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,3</t>
+          <t>0,88; 5,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,5; 822,9</t>
+          <t>42,5; 803,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 369,99</t>
+          <t>-5,99; 354,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,23; 700,76</t>
+          <t>28,23; 667,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 856,88</t>
+          <t>19,02; 913,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,38</t>
+          <t>2,93; 7,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,77</t>
+          <t>2,69; 8,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,85</t>
+          <t>2,74; 7,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,9</t>
+          <t>2,98; 8,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>133,01; 2625,8</t>
+          <t>159,07; 2775,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,01; 729,96</t>
+          <t>56,66; 700,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,74; 1040,72</t>
+          <t>93,54; 913,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,32; 376,22</t>
+          <t>48,38; 333,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,0</t>
+          <t>0,77; 6,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 9,08</t>
+          <t>1,38; 9,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,35</t>
+          <t>1,31; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 7,59</t>
+          <t>0,8; 7,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1660,1</t>
+          <t>-11,72; 1650,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 375,75</t>
+          <t>16,07; 365,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,84; —</t>
+          <t>23,09; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 194,36</t>
+          <t>10,8; 214,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,08</t>
+          <t>1,64; 6,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,95</t>
+          <t>5,89; 12,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,44</t>
+          <t>2,46; 8,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,55</t>
+          <t>-4,39; 2,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,63; 2211,94</t>
+          <t>61,32; 2211,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>212,53; 2061,11</t>
+          <t>217,32; 1967,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,47; 873,54</t>
+          <t>69,74; 933,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,41; 91,34</t>
+          <t>-59,21; 84,85</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 13,04</t>
+          <t>2,07; 12,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 17,82</t>
+          <t>7,03; 18,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,72</t>
+          <t>-0,86; 9,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,25</t>
+          <t>1,81; 6,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,83; 499,67</t>
+          <t>24,59; 479,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>115,95; 1307,28</t>
+          <t>123,01; 1349,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 237,83</t>
+          <t>-15,73; 276,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,44; 1573,4</t>
+          <t>48,9; 1458,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,41</t>
+          <t>0,31; 4,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 9,51</t>
+          <t>0,69; 8,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,44</t>
+          <t>4,18; 11,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,33</t>
+          <t>-1,79; 4,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,26; —</t>
+          <t>-23,52; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,53; 482,24</t>
+          <t>3,14; 406,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>142,33; 3757,14</t>
+          <t>176,5; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 121,45</t>
+          <t>-27,13; 132,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,1</t>
+          <t>3,31; 8,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,67</t>
+          <t>0,23; 5,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,96</t>
+          <t>1,77; 5,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,03</t>
+          <t>-2,0; 5,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>118,41; 668,21</t>
+          <t>104,43; 641,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 195,38</t>
+          <t>2,78; 180,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,42; 790,32</t>
+          <t>68,79; 748,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 159,27</t>
+          <t>-30,04; 150,67</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,46</t>
+          <t>0,46; 5,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,04</t>
+          <t>1,74; 5,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,18</t>
+          <t>2,93; 8,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,34</t>
+          <t>4,81; 8,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 178,78</t>
+          <t>7,8; 159,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>44,26; 339,06</t>
+          <t>41,55; 335,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>71,25; 328,41</t>
+          <t>69,03; 331,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>197,98; 1303,55</t>
+          <t>200,68; 1190,35</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,17</t>
+          <t>3,32; 5,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,36</t>
+          <t>4,02; 6,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,94</t>
+          <t>3,93; 5,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,08</t>
+          <t>2,36; 5,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>125,11; 288,95</t>
+          <t>130,75; 301,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>109,06; 236,09</t>
+          <t>107,3; 230,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>151,89; 324,05</t>
+          <t>155,29; 331,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>70,59; 194,3</t>
+          <t>65,87; 187,79</t>
         </is>
       </c>
     </row>
